--- a/tools/test.xlsx
+++ b/tools/test.xlsx
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -372,6 +372,21 @@
         <v>2</v>
       </c>
       <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C4">
         <v>3</v>
       </c>
     </row>

--- a/tools/test.xlsx
+++ b/tools/test.xlsx
@@ -359,7 +359,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -386,6 +386,12 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
       <c r="C4">
         <v>3</v>
       </c>
